--- a/data/raw_data/ManyPrimates_mp1_datasheet_Paris Zoo.xlsx
+++ b/data/raw_data/ManyPrimates_mp1_datasheet_Paris Zoo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="58">
   <si>
     <t>For each column, only enter data of the format specified in the "type of data" column. If you are unsure what to enter, ask on Slack or send an email to manyprimates@gmail.com</t>
   </si>
@@ -227,12 +227,6 @@
   <si>
     <t>n</t>
   </si>
-  <si>
-    <t>luc_par</t>
-  </si>
-  <si>
-    <t>mol_par</t>
-  </si>
 </sst>
 </file>
 
@@ -33279,7 +33273,7 @@
         <v>44</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E65" s="21">
         <v>19.0</v>
@@ -33335,7 +33329,7 @@
         <v>44</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E66" s="21">
         <v>19.0</v>
@@ -33391,7 +33385,7 @@
         <v>44</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E67" s="21">
         <v>19.0</v>
@@ -33447,7 +33441,7 @@
         <v>44</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E68" s="21">
         <v>19.0</v>
@@ -33503,7 +33497,7 @@
         <v>44</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E69" s="21">
         <v>19.0</v>
@@ -33559,7 +33553,7 @@
         <v>44</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E70" s="21">
         <v>19.0</v>
@@ -33615,7 +33609,7 @@
         <v>44</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E71" s="21">
         <v>19.0</v>
@@ -33671,7 +33665,7 @@
         <v>44</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E72" s="21">
         <v>19.0</v>
@@ -33727,7 +33721,7 @@
         <v>44</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E73" s="21">
         <v>19.0</v>
@@ -33783,7 +33777,7 @@
         <v>44</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E74" s="21">
         <v>14.5</v>
@@ -33839,7 +33833,7 @@
         <v>44</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E75" s="21">
         <v>14.5</v>
@@ -33895,7 +33889,7 @@
         <v>44</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E76" s="21">
         <v>14.5</v>
@@ -33951,7 +33945,7 @@
         <v>44</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E77" s="21">
         <v>14.5</v>
@@ -34007,7 +34001,7 @@
         <v>44</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E78" s="21">
         <v>14.5</v>
@@ -34063,7 +34057,7 @@
         <v>44</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E79" s="21">
         <v>14.5</v>
@@ -34119,7 +34113,7 @@
         <v>44</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E80" s="21">
         <v>14.5</v>
@@ -34175,7 +34169,7 @@
         <v>44</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E81" s="21">
         <v>14.5</v>
@@ -34231,7 +34225,7 @@
         <v>44</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E82" s="21">
         <v>14.5</v>

--- a/data/raw_data/ManyPrimates_mp1_datasheet_Paris Zoo.xlsx
+++ b/data/raw_data/ManyPrimates_mp1_datasheet_Paris Zoo.xlsx
@@ -38,6 +38,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">formatted in the following way: YYYYMMDD (e.g. 20180131). </t>
     </r>
     <r>
@@ -109,6 +110,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">block number, </t>
     </r>
     <r>
@@ -118,6 +120,7 @@
       <t>continuous across sessions</t>
     </r>
     <r>
+      <rPr/>
       <t>. Each block must be three trials of the same delay type. Must be numeric</t>
     </r>
   </si>
@@ -126,6 +129,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">trial number, </t>
     </r>
     <r>
@@ -135,6 +139,7 @@
       <t>continuous across sessions</t>
     </r>
     <r>
+      <rPr/>
       <t xml:space="preserve"> (i.e., do not start again with 1). Must be numeric</t>
     </r>
   </si>
@@ -155,6 +160,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">first location indicated by subject </t>
     </r>
     <r>
